--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R205_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R205_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -680,10 +692,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -727,28 +739,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -773,28 +785,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1462,10 +1474,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1509,28 +1521,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1555,28 +1567,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2273,10 +2285,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2320,28 +2332,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2366,28 +2378,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2997,10 +3009,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
+      <c r="J99" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K99" s="2" t="s">
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3044,28 +3056,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3090,28 +3102,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3663,10 +3675,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
+      <c r="J122" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K122" s="2" t="s">
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3710,28 +3722,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3756,28 +3768,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3923,10 +3935,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
+      <c r="J131" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K131" s="2" t="s">
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
